--- a/import-regions/regions.xlsx
+++ b/import-regions/regions.xlsx
@@ -10,11 +10,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="TQBzqpsoNF4Z72ctYGhjLS67G6zFseD2w4kSMetAVD4="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="114">
   <si>
     <t>Región</t>
   </si>
@@ -25,79 +30,79 @@
     <t>REGIÓN NORTE</t>
   </si>
   <si>
-    <t>ALTA VERAPAZ</t>
-  </si>
-  <si>
-    <t>BAJA VERAPAZ</t>
-  </si>
-  <si>
-    <t>IZABAL</t>
-  </si>
-  <si>
-    <t>PETÉN</t>
+    <t>Alta Verapaz</t>
+  </si>
+  <si>
+    <t>Baja Verapaz</t>
+  </si>
+  <si>
+    <t>Izabal</t>
+  </si>
+  <si>
+    <t>Petén</t>
   </si>
   <si>
     <t>REGIÓN ORIENTE</t>
   </si>
   <si>
-    <t>CHIQUIMULA</t>
-  </si>
-  <si>
-    <t>EL PROGRESO</t>
-  </si>
-  <si>
-    <t>JALAPA</t>
-  </si>
-  <si>
-    <t>JUTIAPA</t>
-  </si>
-  <si>
-    <t>SANTA ROSA</t>
-  </si>
-  <si>
-    <t>ZACAPA</t>
+    <t>Chiquimula</t>
+  </si>
+  <si>
+    <t>El Progreso</t>
+  </si>
+  <si>
+    <t>Jalapa</t>
+  </si>
+  <si>
+    <t>Jutiapa</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Zacapa</t>
   </si>
   <si>
     <t>REGIÓN CENTRAL</t>
   </si>
   <si>
-    <t>CHIMALTENANGO</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>SACATEPEQUEZ</t>
-  </si>
-  <si>
-    <t>ESCUINTLA</t>
-  </si>
-  <si>
-    <t>HUEHUETENANGO</t>
-  </si>
-  <si>
-    <t>QUETZALTENANGO</t>
-  </si>
-  <si>
-    <t>QUICHÉ</t>
-  </si>
-  <si>
-    <t>SAN MARCOS</t>
-  </si>
-  <si>
-    <t>SOLOLÁ</t>
-  </si>
-  <si>
-    <t>TOTONICAPÁN</t>
+    <t>Chimaltenango</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Sacatepéquez</t>
+  </si>
+  <si>
+    <t>Escuintla</t>
+  </si>
+  <si>
+    <t>Huehuetenango</t>
+  </si>
+  <si>
+    <t>Quetzaltenango</t>
+  </si>
+  <si>
+    <t>Quiché</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>Sololá</t>
+  </si>
+  <si>
+    <t>Totonicapán</t>
   </si>
   <si>
     <t>REGIÓN SUR</t>
   </si>
   <si>
-    <t>RETALHULEU</t>
-  </si>
-  <si>
-    <t>SUCHITEPEQUEZ</t>
+    <t>Retalhuleu</t>
+  </si>
+  <si>
+    <t>Suchitepéquez</t>
   </si>
   <si>
     <t>No</t>
@@ -142,7 +147,7 @@
     <t>Samaná</t>
   </si>
   <si>
-    <t>Monte Cristi</t>
+    <t>Montecristi</t>
   </si>
   <si>
     <t>Dajabón</t>
@@ -202,6 +207,9 @@
     <t>La Romana</t>
   </si>
   <si>
+    <t>El Seibo</t>
+  </si>
+  <si>
     <t>Metropolitana</t>
   </si>
   <si>
@@ -214,22 +222,22 @@
     <t>Norte</t>
   </si>
   <si>
-    <t>Cortés</t>
-  </si>
-  <si>
-    <t>Atlántida</t>
-  </si>
-  <si>
-    <t>Colón</t>
-  </si>
-  <si>
-    <t>Islas de la Bahía</t>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>Atlantida</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Islas De La Bahia</t>
   </si>
   <si>
     <t>Occidente</t>
   </si>
   <si>
-    <t>Copán</t>
+    <t>Copan</t>
   </si>
   <si>
     <t>Lempira</t>
@@ -238,13 +246,13 @@
     <t>Ocotepeque</t>
   </si>
   <si>
-    <t>Santa Bárbara</t>
+    <t>Santa Barbara</t>
   </si>
   <si>
     <t>Centro</t>
   </si>
   <si>
-    <t>Francisco Morazán</t>
+    <t>Francisco Morazan</t>
   </si>
   <si>
     <t>Comayagua</t>
@@ -253,7 +261,7 @@
     <t>La Paz</t>
   </si>
   <si>
-    <t>Intibucá</t>
+    <t>Intibuca</t>
   </si>
   <si>
     <t>Valle</t>
@@ -262,7 +270,7 @@
     <t>Choluteca</t>
   </si>
   <si>
-    <t>El Paraíso</t>
+    <t>El Paraiso</t>
   </si>
   <si>
     <t>Oriente</t>
@@ -323,6 +331,9 @@
   </si>
   <si>
     <t>Ucayali</t>
+  </si>
+  <si>
+    <t>Huancavelica</t>
   </si>
   <si>
     <t>Ica</t>
@@ -449,7 +460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border/>
     <border>
       <left style="medium">
@@ -641,6 +652,14 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="medium">
@@ -727,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -742,12 +761,12 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -755,98 +774,112 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="19" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="22" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="23" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="23" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="25" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="27" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="22" fillId="7" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="23" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="24" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="23" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1557,745 +1590,783 @@
     <row r="221" ht="13.5" customHeight="1"/>
     <row r="222" ht="13.5" customHeight="1"/>
     <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
-    <row r="515" ht="13.5" customHeight="1"/>
-    <row r="516" ht="13.5" customHeight="1"/>
-    <row r="517" ht="13.5" customHeight="1"/>
-    <row r="518" ht="13.5" customHeight="1"/>
-    <row r="519" ht="13.5" customHeight="1"/>
-    <row r="520" ht="13.5" customHeight="1"/>
-    <row r="521" ht="13.5" customHeight="1"/>
-    <row r="522" ht="13.5" customHeight="1"/>
-    <row r="523" ht="13.5" customHeight="1"/>
-    <row r="524" ht="13.5" customHeight="1"/>
-    <row r="525" ht="13.5" customHeight="1"/>
-    <row r="526" ht="13.5" customHeight="1"/>
-    <row r="527" ht="13.5" customHeight="1"/>
-    <row r="528" ht="13.5" customHeight="1"/>
-    <row r="529" ht="13.5" customHeight="1"/>
-    <row r="530" ht="13.5" customHeight="1"/>
-    <row r="531" ht="13.5" customHeight="1"/>
-    <row r="532" ht="13.5" customHeight="1"/>
-    <row r="533" ht="13.5" customHeight="1"/>
-    <row r="534" ht="13.5" customHeight="1"/>
-    <row r="535" ht="13.5" customHeight="1"/>
-    <row r="536" ht="13.5" customHeight="1"/>
-    <row r="537" ht="13.5" customHeight="1"/>
-    <row r="538" ht="13.5" customHeight="1"/>
-    <row r="539" ht="13.5" customHeight="1"/>
-    <row r="540" ht="13.5" customHeight="1"/>
-    <row r="541" ht="13.5" customHeight="1"/>
-    <row r="542" ht="13.5" customHeight="1"/>
-    <row r="543" ht="13.5" customHeight="1"/>
-    <row r="544" ht="13.5" customHeight="1"/>
-    <row r="545" ht="13.5" customHeight="1"/>
-    <row r="546" ht="13.5" customHeight="1"/>
-    <row r="547" ht="13.5" customHeight="1"/>
-    <row r="548" ht="13.5" customHeight="1"/>
-    <row r="549" ht="13.5" customHeight="1"/>
-    <row r="550" ht="13.5" customHeight="1"/>
-    <row r="551" ht="13.5" customHeight="1"/>
-    <row r="552" ht="13.5" customHeight="1"/>
-    <row r="553" ht="13.5" customHeight="1"/>
-    <row r="554" ht="13.5" customHeight="1"/>
-    <row r="555" ht="13.5" customHeight="1"/>
-    <row r="556" ht="13.5" customHeight="1"/>
-    <row r="557" ht="13.5" customHeight="1"/>
-    <row r="558" ht="13.5" customHeight="1"/>
-    <row r="559" ht="13.5" customHeight="1"/>
-    <row r="560" ht="13.5" customHeight="1"/>
-    <row r="561" ht="13.5" customHeight="1"/>
-    <row r="562" ht="13.5" customHeight="1"/>
-    <row r="563" ht="13.5" customHeight="1"/>
-    <row r="564" ht="13.5" customHeight="1"/>
-    <row r="565" ht="13.5" customHeight="1"/>
-    <row r="566" ht="13.5" customHeight="1"/>
-    <row r="567" ht="13.5" customHeight="1"/>
-    <row r="568" ht="13.5" customHeight="1"/>
-    <row r="569" ht="13.5" customHeight="1"/>
-    <row r="570" ht="13.5" customHeight="1"/>
-    <row r="571" ht="13.5" customHeight="1"/>
-    <row r="572" ht="13.5" customHeight="1"/>
-    <row r="573" ht="13.5" customHeight="1"/>
-    <row r="574" ht="13.5" customHeight="1"/>
-    <row r="575" ht="13.5" customHeight="1"/>
-    <row r="576" ht="13.5" customHeight="1"/>
-    <row r="577" ht="13.5" customHeight="1"/>
-    <row r="578" ht="13.5" customHeight="1"/>
-    <row r="579" ht="13.5" customHeight="1"/>
-    <row r="580" ht="13.5" customHeight="1"/>
-    <row r="581" ht="13.5" customHeight="1"/>
-    <row r="582" ht="13.5" customHeight="1"/>
-    <row r="583" ht="13.5" customHeight="1"/>
-    <row r="584" ht="13.5" customHeight="1"/>
-    <row r="585" ht="13.5" customHeight="1"/>
-    <row r="586" ht="13.5" customHeight="1"/>
-    <row r="587" ht="13.5" customHeight="1"/>
-    <row r="588" ht="13.5" customHeight="1"/>
-    <row r="589" ht="13.5" customHeight="1"/>
-    <row r="590" ht="13.5" customHeight="1"/>
-    <row r="591" ht="13.5" customHeight="1"/>
-    <row r="592" ht="13.5" customHeight="1"/>
-    <row r="593" ht="13.5" customHeight="1"/>
-    <row r="594" ht="13.5" customHeight="1"/>
-    <row r="595" ht="13.5" customHeight="1"/>
-    <row r="596" ht="13.5" customHeight="1"/>
-    <row r="597" ht="13.5" customHeight="1"/>
-    <row r="598" ht="13.5" customHeight="1"/>
-    <row r="599" ht="13.5" customHeight="1"/>
-    <row r="600" ht="13.5" customHeight="1"/>
-    <row r="601" ht="13.5" customHeight="1"/>
-    <row r="602" ht="13.5" customHeight="1"/>
-    <row r="603" ht="13.5" customHeight="1"/>
-    <row r="604" ht="13.5" customHeight="1"/>
-    <row r="605" ht="13.5" customHeight="1"/>
-    <row r="606" ht="13.5" customHeight="1"/>
-    <row r="607" ht="13.5" customHeight="1"/>
-    <row r="608" ht="13.5" customHeight="1"/>
-    <row r="609" ht="13.5" customHeight="1"/>
-    <row r="610" ht="13.5" customHeight="1"/>
-    <row r="611" ht="13.5" customHeight="1"/>
-    <row r="612" ht="13.5" customHeight="1"/>
-    <row r="613" ht="13.5" customHeight="1"/>
-    <row r="614" ht="13.5" customHeight="1"/>
-    <row r="615" ht="13.5" customHeight="1"/>
-    <row r="616" ht="13.5" customHeight="1"/>
-    <row r="617" ht="13.5" customHeight="1"/>
-    <row r="618" ht="13.5" customHeight="1"/>
-    <row r="619" ht="13.5" customHeight="1"/>
-    <row r="620" ht="13.5" customHeight="1"/>
-    <row r="621" ht="13.5" customHeight="1"/>
-    <row r="622" ht="13.5" customHeight="1"/>
-    <row r="623" ht="13.5" customHeight="1"/>
-    <row r="624" ht="13.5" customHeight="1"/>
-    <row r="625" ht="13.5" customHeight="1"/>
-    <row r="626" ht="13.5" customHeight="1"/>
-    <row r="627" ht="13.5" customHeight="1"/>
-    <row r="628" ht="13.5" customHeight="1"/>
-    <row r="629" ht="13.5" customHeight="1"/>
-    <row r="630" ht="13.5" customHeight="1"/>
-    <row r="631" ht="13.5" customHeight="1"/>
-    <row r="632" ht="13.5" customHeight="1"/>
-    <row r="633" ht="13.5" customHeight="1"/>
-    <row r="634" ht="13.5" customHeight="1"/>
-    <row r="635" ht="13.5" customHeight="1"/>
-    <row r="636" ht="13.5" customHeight="1"/>
-    <row r="637" ht="13.5" customHeight="1"/>
-    <row r="638" ht="13.5" customHeight="1"/>
-    <row r="639" ht="13.5" customHeight="1"/>
-    <row r="640" ht="13.5" customHeight="1"/>
-    <row r="641" ht="13.5" customHeight="1"/>
-    <row r="642" ht="13.5" customHeight="1"/>
-    <row r="643" ht="13.5" customHeight="1"/>
-    <row r="644" ht="13.5" customHeight="1"/>
-    <row r="645" ht="13.5" customHeight="1"/>
-    <row r="646" ht="13.5" customHeight="1"/>
-    <row r="647" ht="13.5" customHeight="1"/>
-    <row r="648" ht="13.5" customHeight="1"/>
-    <row r="649" ht="13.5" customHeight="1"/>
-    <row r="650" ht="13.5" customHeight="1"/>
-    <row r="651" ht="13.5" customHeight="1"/>
-    <row r="652" ht="13.5" customHeight="1"/>
-    <row r="653" ht="13.5" customHeight="1"/>
-    <row r="654" ht="13.5" customHeight="1"/>
-    <row r="655" ht="13.5" customHeight="1"/>
-    <row r="656" ht="13.5" customHeight="1"/>
-    <row r="657" ht="13.5" customHeight="1"/>
-    <row r="658" ht="13.5" customHeight="1"/>
-    <row r="659" ht="13.5" customHeight="1"/>
-    <row r="660" ht="13.5" customHeight="1"/>
-    <row r="661" ht="13.5" customHeight="1"/>
-    <row r="662" ht="13.5" customHeight="1"/>
-    <row r="663" ht="13.5" customHeight="1"/>
-    <row r="664" ht="13.5" customHeight="1"/>
-    <row r="665" ht="13.5" customHeight="1"/>
-    <row r="666" ht="13.5" customHeight="1"/>
-    <row r="667" ht="13.5" customHeight="1"/>
-    <row r="668" ht="13.5" customHeight="1"/>
-    <row r="669" ht="13.5" customHeight="1"/>
-    <row r="670" ht="13.5" customHeight="1"/>
-    <row r="671" ht="13.5" customHeight="1"/>
-    <row r="672" ht="13.5" customHeight="1"/>
-    <row r="673" ht="13.5" customHeight="1"/>
-    <row r="674" ht="13.5" customHeight="1"/>
-    <row r="675" ht="13.5" customHeight="1"/>
-    <row r="676" ht="13.5" customHeight="1"/>
-    <row r="677" ht="13.5" customHeight="1"/>
-    <row r="678" ht="13.5" customHeight="1"/>
-    <row r="679" ht="13.5" customHeight="1"/>
-    <row r="680" ht="13.5" customHeight="1"/>
-    <row r="681" ht="13.5" customHeight="1"/>
-    <row r="682" ht="13.5" customHeight="1"/>
-    <row r="683" ht="13.5" customHeight="1"/>
-    <row r="684" ht="13.5" customHeight="1"/>
-    <row r="685" ht="13.5" customHeight="1"/>
-    <row r="686" ht="13.5" customHeight="1"/>
-    <row r="687" ht="13.5" customHeight="1"/>
-    <row r="688" ht="13.5" customHeight="1"/>
-    <row r="689" ht="13.5" customHeight="1"/>
-    <row r="690" ht="13.5" customHeight="1"/>
-    <row r="691" ht="13.5" customHeight="1"/>
-    <row r="692" ht="13.5" customHeight="1"/>
-    <row r="693" ht="13.5" customHeight="1"/>
-    <row r="694" ht="13.5" customHeight="1"/>
-    <row r="695" ht="13.5" customHeight="1"/>
-    <row r="696" ht="13.5" customHeight="1"/>
-    <row r="697" ht="13.5" customHeight="1"/>
-    <row r="698" ht="13.5" customHeight="1"/>
-    <row r="699" ht="13.5" customHeight="1"/>
-    <row r="700" ht="13.5" customHeight="1"/>
-    <row r="701" ht="13.5" customHeight="1"/>
-    <row r="702" ht="13.5" customHeight="1"/>
-    <row r="703" ht="13.5" customHeight="1"/>
-    <row r="704" ht="13.5" customHeight="1"/>
-    <row r="705" ht="13.5" customHeight="1"/>
-    <row r="706" ht="13.5" customHeight="1"/>
-    <row r="707" ht="13.5" customHeight="1"/>
-    <row r="708" ht="13.5" customHeight="1"/>
-    <row r="709" ht="13.5" customHeight="1"/>
-    <row r="710" ht="13.5" customHeight="1"/>
-    <row r="711" ht="13.5" customHeight="1"/>
-    <row r="712" ht="13.5" customHeight="1"/>
-    <row r="713" ht="13.5" customHeight="1"/>
-    <row r="714" ht="13.5" customHeight="1"/>
-    <row r="715" ht="13.5" customHeight="1"/>
-    <row r="716" ht="13.5" customHeight="1"/>
-    <row r="717" ht="13.5" customHeight="1"/>
-    <row r="718" ht="13.5" customHeight="1"/>
-    <row r="719" ht="13.5" customHeight="1"/>
-    <row r="720" ht="13.5" customHeight="1"/>
-    <row r="721" ht="13.5" customHeight="1"/>
-    <row r="722" ht="13.5" customHeight="1"/>
-    <row r="723" ht="13.5" customHeight="1"/>
-    <row r="724" ht="13.5" customHeight="1"/>
-    <row r="725" ht="13.5" customHeight="1"/>
-    <row r="726" ht="13.5" customHeight="1"/>
-    <row r="727" ht="13.5" customHeight="1"/>
-    <row r="728" ht="13.5" customHeight="1"/>
-    <row r="729" ht="13.5" customHeight="1"/>
-    <row r="730" ht="13.5" customHeight="1"/>
-    <row r="731" ht="13.5" customHeight="1"/>
-    <row r="732" ht="13.5" customHeight="1"/>
-    <row r="733" ht="13.5" customHeight="1"/>
-    <row r="734" ht="13.5" customHeight="1"/>
-    <row r="735" ht="13.5" customHeight="1"/>
-    <row r="736" ht="13.5" customHeight="1"/>
-    <row r="737" ht="13.5" customHeight="1"/>
-    <row r="738" ht="13.5" customHeight="1"/>
-    <row r="739" ht="13.5" customHeight="1"/>
-    <row r="740" ht="13.5" customHeight="1"/>
-    <row r="741" ht="13.5" customHeight="1"/>
-    <row r="742" ht="13.5" customHeight="1"/>
-    <row r="743" ht="13.5" customHeight="1"/>
-    <row r="744" ht="13.5" customHeight="1"/>
-    <row r="745" ht="13.5" customHeight="1"/>
-    <row r="746" ht="13.5" customHeight="1"/>
-    <row r="747" ht="13.5" customHeight="1"/>
-    <row r="748" ht="13.5" customHeight="1"/>
-    <row r="749" ht="13.5" customHeight="1"/>
-    <row r="750" ht="13.5" customHeight="1"/>
-    <row r="751" ht="13.5" customHeight="1"/>
-    <row r="752" ht="13.5" customHeight="1"/>
-    <row r="753" ht="13.5" customHeight="1"/>
-    <row r="754" ht="13.5" customHeight="1"/>
-    <row r="755" ht="13.5" customHeight="1"/>
-    <row r="756" ht="13.5" customHeight="1"/>
-    <row r="757" ht="13.5" customHeight="1"/>
-    <row r="758" ht="13.5" customHeight="1"/>
-    <row r="759" ht="13.5" customHeight="1"/>
-    <row r="760" ht="13.5" customHeight="1"/>
-    <row r="761" ht="13.5" customHeight="1"/>
-    <row r="762" ht="13.5" customHeight="1"/>
-    <row r="763" ht="13.5" customHeight="1"/>
-    <row r="764" ht="13.5" customHeight="1"/>
-    <row r="765" ht="13.5" customHeight="1"/>
-    <row r="766" ht="13.5" customHeight="1"/>
-    <row r="767" ht="13.5" customHeight="1"/>
-    <row r="768" ht="13.5" customHeight="1"/>
-    <row r="769" ht="13.5" customHeight="1"/>
-    <row r="770" ht="13.5" customHeight="1"/>
-    <row r="771" ht="13.5" customHeight="1"/>
-    <row r="772" ht="13.5" customHeight="1"/>
-    <row r="773" ht="13.5" customHeight="1"/>
-    <row r="774" ht="13.5" customHeight="1"/>
-    <row r="775" ht="13.5" customHeight="1"/>
-    <row r="776" ht="13.5" customHeight="1"/>
-    <row r="777" ht="13.5" customHeight="1"/>
-    <row r="778" ht="13.5" customHeight="1"/>
-    <row r="779" ht="13.5" customHeight="1"/>
-    <row r="780" ht="13.5" customHeight="1"/>
-    <row r="781" ht="13.5" customHeight="1"/>
-    <row r="782" ht="13.5" customHeight="1"/>
-    <row r="783" ht="13.5" customHeight="1"/>
-    <row r="784" ht="13.5" customHeight="1"/>
-    <row r="785" ht="13.5" customHeight="1"/>
-    <row r="786" ht="13.5" customHeight="1"/>
-    <row r="787" ht="13.5" customHeight="1"/>
-    <row r="788" ht="13.5" customHeight="1"/>
-    <row r="789" ht="13.5" customHeight="1"/>
-    <row r="790" ht="13.5" customHeight="1"/>
-    <row r="791" ht="13.5" customHeight="1"/>
-    <row r="792" ht="13.5" customHeight="1"/>
-    <row r="793" ht="13.5" customHeight="1"/>
-    <row r="794" ht="13.5" customHeight="1"/>
-    <row r="795" ht="13.5" customHeight="1"/>
-    <row r="796" ht="13.5" customHeight="1"/>
-    <row r="797" ht="13.5" customHeight="1"/>
-    <row r="798" ht="13.5" customHeight="1"/>
-    <row r="799" ht="13.5" customHeight="1"/>
-    <row r="800" ht="13.5" customHeight="1"/>
-    <row r="801" ht="13.5" customHeight="1"/>
-    <row r="802" ht="13.5" customHeight="1"/>
-    <row r="803" ht="13.5" customHeight="1"/>
-    <row r="804" ht="13.5" customHeight="1"/>
-    <row r="805" ht="13.5" customHeight="1"/>
-    <row r="806" ht="13.5" customHeight="1"/>
-    <row r="807" ht="13.5" customHeight="1"/>
-    <row r="808" ht="13.5" customHeight="1"/>
-    <row r="809" ht="13.5" customHeight="1"/>
-    <row r="810" ht="13.5" customHeight="1"/>
-    <row r="811" ht="13.5" customHeight="1"/>
-    <row r="812" ht="13.5" customHeight="1"/>
-    <row r="813" ht="13.5" customHeight="1"/>
-    <row r="814" ht="13.5" customHeight="1"/>
-    <row r="815" ht="13.5" customHeight="1"/>
-    <row r="816" ht="13.5" customHeight="1"/>
-    <row r="817" ht="13.5" customHeight="1"/>
-    <row r="818" ht="13.5" customHeight="1"/>
-    <row r="819" ht="13.5" customHeight="1"/>
-    <row r="820" ht="13.5" customHeight="1"/>
-    <row r="821" ht="13.5" customHeight="1"/>
-    <row r="822" ht="13.5" customHeight="1"/>
-    <row r="823" ht="13.5" customHeight="1"/>
-    <row r="824" ht="13.5" customHeight="1"/>
-    <row r="825" ht="13.5" customHeight="1"/>
-    <row r="826" ht="13.5" customHeight="1"/>
-    <row r="827" ht="13.5" customHeight="1"/>
-    <row r="828" ht="13.5" customHeight="1"/>
-    <row r="829" ht="13.5" customHeight="1"/>
-    <row r="830" ht="13.5" customHeight="1"/>
-    <row r="831" ht="13.5" customHeight="1"/>
-    <row r="832" ht="13.5" customHeight="1"/>
-    <row r="833" ht="13.5" customHeight="1"/>
-    <row r="834" ht="13.5" customHeight="1"/>
-    <row r="835" ht="13.5" customHeight="1"/>
-    <row r="836" ht="13.5" customHeight="1"/>
-    <row r="837" ht="13.5" customHeight="1"/>
-    <row r="838" ht="13.5" customHeight="1"/>
-    <row r="839" ht="13.5" customHeight="1"/>
-    <row r="840" ht="13.5" customHeight="1"/>
-    <row r="841" ht="13.5" customHeight="1"/>
-    <row r="842" ht="13.5" customHeight="1"/>
-    <row r="843" ht="13.5" customHeight="1"/>
-    <row r="844" ht="13.5" customHeight="1"/>
-    <row r="845" ht="13.5" customHeight="1"/>
-    <row r="846" ht="13.5" customHeight="1"/>
-    <row r="847" ht="13.5" customHeight="1"/>
-    <row r="848" ht="13.5" customHeight="1"/>
-    <row r="849" ht="13.5" customHeight="1"/>
-    <row r="850" ht="13.5" customHeight="1"/>
-    <row r="851" ht="13.5" customHeight="1"/>
-    <row r="852" ht="13.5" customHeight="1"/>
-    <row r="853" ht="13.5" customHeight="1"/>
-    <row r="854" ht="13.5" customHeight="1"/>
-    <row r="855" ht="13.5" customHeight="1"/>
-    <row r="856" ht="13.5" customHeight="1"/>
-    <row r="857" ht="13.5" customHeight="1"/>
-    <row r="858" ht="13.5" customHeight="1"/>
-    <row r="859" ht="13.5" customHeight="1"/>
-    <row r="860" ht="13.5" customHeight="1"/>
-    <row r="861" ht="13.5" customHeight="1"/>
-    <row r="862" ht="13.5" customHeight="1"/>
-    <row r="863" ht="13.5" customHeight="1"/>
-    <row r="864" ht="13.5" customHeight="1"/>
-    <row r="865" ht="13.5" customHeight="1"/>
-    <row r="866" ht="13.5" customHeight="1"/>
-    <row r="867" ht="13.5" customHeight="1"/>
-    <row r="868" ht="13.5" customHeight="1"/>
-    <row r="869" ht="13.5" customHeight="1"/>
-    <row r="870" ht="13.5" customHeight="1"/>
-    <row r="871" ht="13.5" customHeight="1"/>
-    <row r="872" ht="13.5" customHeight="1"/>
-    <row r="873" ht="13.5" customHeight="1"/>
-    <row r="874" ht="13.5" customHeight="1"/>
-    <row r="875" ht="13.5" customHeight="1"/>
-    <row r="876" ht="13.5" customHeight="1"/>
-    <row r="877" ht="13.5" customHeight="1"/>
-    <row r="878" ht="13.5" customHeight="1"/>
-    <row r="879" ht="13.5" customHeight="1"/>
-    <row r="880" ht="13.5" customHeight="1"/>
-    <row r="881" ht="13.5" customHeight="1"/>
-    <row r="882" ht="13.5" customHeight="1"/>
-    <row r="883" ht="13.5" customHeight="1"/>
-    <row r="884" ht="13.5" customHeight="1"/>
-    <row r="885" ht="13.5" customHeight="1"/>
-    <row r="886" ht="13.5" customHeight="1"/>
-    <row r="887" ht="13.5" customHeight="1"/>
-    <row r="888" ht="13.5" customHeight="1"/>
-    <row r="889" ht="13.5" customHeight="1"/>
-    <row r="890" ht="13.5" customHeight="1"/>
-    <row r="891" ht="13.5" customHeight="1"/>
-    <row r="892" ht="13.5" customHeight="1"/>
-    <row r="893" ht="13.5" customHeight="1"/>
-    <row r="894" ht="13.5" customHeight="1"/>
-    <row r="895" ht="13.5" customHeight="1"/>
-    <row r="896" ht="13.5" customHeight="1"/>
-    <row r="897" ht="13.5" customHeight="1"/>
-    <row r="898" ht="13.5" customHeight="1"/>
-    <row r="899" ht="13.5" customHeight="1"/>
-    <row r="900" ht="13.5" customHeight="1"/>
-    <row r="901" ht="13.5" customHeight="1"/>
-    <row r="902" ht="13.5" customHeight="1"/>
-    <row r="903" ht="13.5" customHeight="1"/>
-    <row r="904" ht="13.5" customHeight="1"/>
-    <row r="905" ht="13.5" customHeight="1"/>
-    <row r="906" ht="13.5" customHeight="1"/>
-    <row r="907" ht="13.5" customHeight="1"/>
-    <row r="908" ht="13.5" customHeight="1"/>
-    <row r="909" ht="13.5" customHeight="1"/>
-    <row r="910" ht="13.5" customHeight="1"/>
-    <row r="911" ht="13.5" customHeight="1"/>
-    <row r="912" ht="13.5" customHeight="1"/>
-    <row r="913" ht="13.5" customHeight="1"/>
-    <row r="914" ht="13.5" customHeight="1"/>
-    <row r="915" ht="13.5" customHeight="1"/>
-    <row r="916" ht="13.5" customHeight="1"/>
-    <row r="917" ht="13.5" customHeight="1"/>
-    <row r="918" ht="13.5" customHeight="1"/>
-    <row r="919" ht="13.5" customHeight="1"/>
-    <row r="920" ht="13.5" customHeight="1"/>
-    <row r="921" ht="13.5" customHeight="1"/>
-    <row r="922" ht="13.5" customHeight="1"/>
-    <row r="923" ht="13.5" customHeight="1"/>
-    <row r="924" ht="13.5" customHeight="1"/>
-    <row r="925" ht="13.5" customHeight="1"/>
-    <row r="926" ht="13.5" customHeight="1"/>
-    <row r="927" ht="13.5" customHeight="1"/>
-    <row r="928" ht="13.5" customHeight="1"/>
-    <row r="929" ht="13.5" customHeight="1"/>
-    <row r="930" ht="13.5" customHeight="1"/>
-    <row r="931" ht="13.5" customHeight="1"/>
-    <row r="932" ht="13.5" customHeight="1"/>
-    <row r="933" ht="13.5" customHeight="1"/>
-    <row r="934" ht="13.5" customHeight="1"/>
-    <row r="935" ht="13.5" customHeight="1"/>
-    <row r="936" ht="13.5" customHeight="1"/>
-    <row r="937" ht="13.5" customHeight="1"/>
-    <row r="938" ht="13.5" customHeight="1"/>
-    <row r="939" ht="13.5" customHeight="1"/>
-    <row r="940" ht="13.5" customHeight="1"/>
-    <row r="941" ht="13.5" customHeight="1"/>
-    <row r="942" ht="13.5" customHeight="1"/>
-    <row r="943" ht="13.5" customHeight="1"/>
-    <row r="944" ht="13.5" customHeight="1"/>
-    <row r="945" ht="13.5" customHeight="1"/>
-    <row r="946" ht="13.5" customHeight="1"/>
-    <row r="947" ht="13.5" customHeight="1"/>
-    <row r="948" ht="13.5" customHeight="1"/>
-    <row r="949" ht="13.5" customHeight="1"/>
-    <row r="950" ht="13.5" customHeight="1"/>
-    <row r="951" ht="13.5" customHeight="1"/>
-    <row r="952" ht="13.5" customHeight="1"/>
-    <row r="953" ht="13.5" customHeight="1"/>
-    <row r="954" ht="13.5" customHeight="1"/>
-    <row r="955" ht="13.5" customHeight="1"/>
-    <row r="956" ht="13.5" customHeight="1"/>
-    <row r="957" ht="13.5" customHeight="1"/>
-    <row r="958" ht="13.5" customHeight="1"/>
-    <row r="959" ht="13.5" customHeight="1"/>
-    <row r="960" ht="13.5" customHeight="1"/>
-    <row r="961" ht="13.5" customHeight="1"/>
-    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
@@ -2320,7 +2391,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="20.38"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2440,7 +2513,7 @@
       <c r="B13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2454,11 +2527,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2509,7 +2582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -2518,7 +2591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>45</v>
@@ -2527,7 +2600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -2536,7 +2609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2545,16 +2618,16 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="16">
         <v>3.0</v>
       </c>
@@ -2565,7 +2638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="20" t="s">
         <v>56</v>
@@ -2574,7 +2647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
         <v>56</v>
@@ -2583,7 +2656,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="19"/>
       <c r="B29" s="20" t="s">
         <v>56</v>
@@ -2592,41 +2665,1018 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="16">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="16">
         <v>4.0</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="18" t="s">
         <v>64</v>
       </c>
     </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A16:A25"/>
     <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A32:A33"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2642,192 +3692,1174 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="16.63"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28">
+      <c r="A2" s="31">
         <v>1.0</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19"/>
-      <c r="B3" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>67</v>
+      <c r="B3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19"/>
-      <c r="B4" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>68</v>
+      <c r="B4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>69</v>
+      <c r="A5" s="23"/>
+      <c r="B5" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28">
+      <c r="A6" s="31">
         <v>2.0</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>71</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19"/>
-      <c r="B7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>72</v>
+      <c r="B7" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19"/>
-      <c r="B8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>73</v>
+      <c r="B8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>74</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="28">
+      <c r="A10" s="31">
         <v>3.0</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="32" t="s">
         <v>76</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19"/>
-      <c r="B11" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>77</v>
+      <c r="B11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19"/>
-      <c r="B12" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>78</v>
+      <c r="B12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="22"/>
-      <c r="B13" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>79</v>
+      <c r="A13" s="23"/>
+      <c r="B13" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="28">
+      <c r="A14" s="31">
         <v>4.0</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>80</v>
+      <c r="C14" s="39" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19"/>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>81</v>
+      <c r="C15" s="38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="33" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>82</v>
+      <c r="C16" s="37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="28">
+      <c r="A17" s="31">
         <v>5.0</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>84</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="19"/>
-      <c r="B18" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>85</v>
+      <c r="B18" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="22"/>
-      <c r="B19" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
+      <c r="A19" s="23"/>
+      <c r="B19" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A5"/>
@@ -2849,245 +4881,1232 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="12.63"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="38">
+      <c r="A2" s="44">
         <v>1.0</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>88</v>
+      <c r="B2" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19"/>
-      <c r="B3" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>89</v>
+      <c r="B3" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19"/>
-      <c r="B4" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>90</v>
+      <c r="B4" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19"/>
-      <c r="B5" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>91</v>
+      <c r="B5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19"/>
-      <c r="B6" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>92</v>
+      <c r="B6" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19"/>
-      <c r="B7" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>93</v>
+      <c r="B7" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19"/>
-      <c r="B8" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>94</v>
+      <c r="B8" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>95</v>
+      <c r="A9" s="23"/>
+      <c r="B9" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="38">
+      <c r="A10" s="44">
         <v>2.0</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>96</v>
+      <c r="B10" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19"/>
-      <c r="B11" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>97</v>
+      <c r="B11" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19"/>
-      <c r="B12" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>98</v>
+      <c r="B12" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19"/>
-      <c r="B13" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>99</v>
+      <c r="B13" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19"/>
-      <c r="B14" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>100</v>
+      <c r="B14" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19"/>
-      <c r="B15" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>101</v>
+      <c r="B15" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="22"/>
-      <c r="B16" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>102</v>
+      <c r="A16" s="23"/>
+      <c r="B16" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="38">
+      <c r="A17" s="51"/>
+      <c r="B17" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="44">
         <v>3.0</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B18" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="19"/>
-      <c r="B18" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>104</v>
+      <c r="C18" s="46" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="19"/>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>105</v>
+      <c r="C19" s="48" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19"/>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>106</v>
+      <c r="C20" s="48" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="C21" s="48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23" s="48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="43" t="s">
+      <c r="C24" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
+      <c r="C25" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A18:A26"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A25"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
